--- a/zhenqiresult.xlsx
+++ b/zhenqiresult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\muzero-general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D7BB7C-72C8-4D85-9149-E625B393A160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C3296-317D-4DC9-B7A4-E984682E2542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="10910" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="7470" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,12 +124,16 @@
     <t>局数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +161,13 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,9 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -474,60 +488,87 @@
     <col min="1" max="16384" width="15.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>50</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>-44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-44</v>
       </c>
     </row>
   </sheetData>

--- a/zhenqiresult.xlsx
+++ b/zhenqiresult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\muzero-general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839C3296-317D-4DC9-B7A4-E984682E2542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3A14F-E73C-4578-A98F-50A3A0029A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="7470" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>和(100</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -50,14 +53,21 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t>胜</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>和(100</t>
-    </r>
+      <t>步</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-85W"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -65,21 +75,14 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t>步</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="汉仪文黑-85W"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>负</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>均</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -87,21 +90,6 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t>负</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>均</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
       <t>为</t>
     </r>
     <r>
@@ -126,6 +114,91 @@
   </si>
   <si>
     <t>step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-85W"/>
+        <family val="1"/>
+      </rPr>
+      <t>修改了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-85W"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-85W"/>
+        <family val="1"/>
+      </rPr>
+      <t>励，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-85W"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-85W"/>
+        <family val="1"/>
+      </rPr>
+      <t>在平局的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-85W"/>
+        <family val="1"/>
+      </rPr>
+      <t>励会越来越少</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入了死循环…会交替走g7-f8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0429-022322</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,9 +237,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="汉仪文黑-85W"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,41 +556,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.58203125" style="1"/>
+    <col min="1" max="7" width="15.58203125" style="1"/>
+    <col min="8" max="8" width="43.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -548,9 +632,9 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>2000</v>
@@ -569,6 +653,17 @@
       </c>
       <c r="G4" s="1">
         <v>-44</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/zhenqiresult.xlsx
+++ b/zhenqiresult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\muzero-general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3A14F-E73C-4578-A98F-50A3A0029A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE948FFB-FC7C-47CE-A374-52E9B0040C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="7470" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13820" yWindow="10250" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0428-122321</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0428-122322</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>局数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,84 +113,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="汉仪文黑-85W"/>
-        <family val="1"/>
-      </rPr>
-      <t>修改了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="汉仪文黑-85W"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>奖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="汉仪文黑-85W"/>
-        <family val="1"/>
-      </rPr>
-      <t>励，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="汉仪文黑-85W"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="汉仪文黑-85W"/>
-        <family val="1"/>
-      </rPr>
-      <t>在平局的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="汉仪文黑-85W"/>
-        <family val="1"/>
-      </rPr>
-      <t>励会越来越少</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陷入了死循环…会交替走g7-f8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0429-022322</t>
+    <t>0505-202322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0506-120410</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,19 +156,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="汉仪文黑-85W"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -574,25 +484,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -603,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -611,59 +521,48 @@
     </row>
     <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C3" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1">
-        <v>-44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C4" s="1">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1">
-        <v>-44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
